--- a/result/greske-are.xlsx
+++ b/result/greske-are.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="31">
   <si>
     <t>x_5-regression</t>
   </si>
@@ -93,6 +94,30 @@
   </si>
   <si>
     <t>x_30-stochastic</t>
+  </si>
+  <si>
+    <t>5-forrest</t>
+  </si>
+  <si>
+    <t>30-forrest</t>
+  </si>
+  <si>
+    <t>25-forrest</t>
+  </si>
+  <si>
+    <t>20-forrest</t>
+  </si>
+  <si>
+    <t>15-forrest</t>
+  </si>
+  <si>
+    <t>10-forrest</t>
+  </si>
+  <si>
+    <t>perdlozena metoda</t>
+  </si>
+  <si>
+    <t>klaster ration</t>
   </si>
 </sst>
 </file>
@@ -429,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19:Q28"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72:E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,7 +877,7 @@
         <v>0.10927342</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="C15:Q15" si="0">AVERAGE(E4:E13)</f>
+        <f t="shared" ref="E15:Q15" si="0">AVERAGE(E4:E13)</f>
         <v>0.11105395999999998</v>
       </c>
       <c r="H15">
@@ -892,7 +917,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -912,7 +937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -950,7 +975,7 @@
         <v>0.19266559999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -988,7 +1013,7 @@
         <v>0.22782540000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -1026,7 +1051,7 @@
         <v>0.14149220000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1064,7 +1089,7 @@
         <v>0.14898239999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -1102,7 +1127,7 @@
         <v>8.2384250000000006E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -1140,7 +1165,7 @@
         <v>6.4410529999999994E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -1178,7 +1203,7 @@
         <v>8.6571949999999995E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -1216,7 +1241,7 @@
         <v>7.8393969999999993E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -1254,7 +1279,7 @@
         <v>0.11332929999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -1292,34 +1317,1033 @@
         <v>0.15694379999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B30">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2">
         <f>AVERAGE(B19:B28)</f>
         <v>0.12111909900000002</v>
       </c>
-      <c r="E30">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2">
         <f>AVERAGE(E19:E28)</f>
         <v>0.12944498899999998</v>
       </c>
-      <c r="H30">
-        <f t="shared" ref="C30:Q30" si="1">AVERAGE(H19:H28)</f>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2">
+        <f t="shared" ref="H30:Q30" si="1">AVERAGE(H19:H28)</f>
         <v>0.12058516800000001</v>
       </c>
-      <c r="K30">
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2">
         <f t="shared" si="1"/>
         <v>0.12554976999999998</v>
       </c>
-      <c r="N30">
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2">
         <f t="shared" si="1"/>
         <v>0.12322861700000001</v>
       </c>
-      <c r="Q30">
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2">
         <f t="shared" si="1"/>
         <v>0.12929994</v>
+      </c>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>0.15024170000000001</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0.15790480000000001</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0.15327260000000001</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0.18163109999999999</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0.16245780000000001</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>0.16155729999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>0.50538459999999996</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>0.42470590000000003</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>0.4201471</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>0.42705880000000002</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>0.41771740000000002</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q34">
+        <v>0.40008329999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>0.10602739999999999</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>0.10268140000000001</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>0.1000123</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>0.1035329</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35">
+        <v>9.6109280000000005E-2</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35">
+        <v>0.1076725</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>0.1198623</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>0.15082619999999999</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>0.1285616</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <v>0.1194026</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N36">
+        <v>0.12504319999999999</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q36">
+        <v>0.1472966</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>4.9885619999999999E-2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>3.9162580000000002E-2</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>6.3518630000000006E-2</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <v>4.5582940000000002E-2</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N37">
+        <v>6.1696340000000002E-2</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q37">
+        <v>6.9626389999999996E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>2.4326899999999999E-2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>4.7011829999999998E-2</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>4.7643459999999999E-2</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38">
+        <v>4.476927E-2</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N38">
+        <v>6.2560359999999995E-2</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q38">
+        <v>5.9821939999999997E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>6.7150970000000004E-2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>7.4983300000000003E-2</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <v>6.0623839999999998E-2</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39">
+        <v>6.1591300000000002E-2</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N39">
+        <v>7.8007980000000005E-2</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q39">
+        <v>8.1303200000000006E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>5.9578440000000003E-2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>5.6159830000000001E-2</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40">
+        <v>5.0469979999999998E-2</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K40">
+        <v>5.2309290000000001E-2</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N40">
+        <v>5.8239350000000002E-2</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q40">
+        <v>6.5848279999999995E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>0.1197951</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>8.8613999999999998E-2</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41">
+        <v>9.1400369999999995E-2</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41">
+        <v>0.1128873</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N41">
+        <v>0.10322099999999999</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q41">
+        <v>9.9242739999999996E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>0.13463240000000001</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>0.14618010000000001</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <v>0.12411609999999999</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42">
+        <v>0.13481589999999999</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N42">
+        <v>0.12717809999999999</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q42">
+        <v>0.13566339999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <f>AVERAGE(B33:B42)</f>
+        <v>0.13368854299999999</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ref="E44:Q44" si="2">AVERAGE(E33:E42)</f>
+        <v>0.128822994</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>0.12397659799999998</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>0.12835813999999998</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="2"/>
+        <v>0.12922308100000002</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="2"/>
+        <v>0.13281156499999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>15</v>
+      </c>
+      <c r="J51">
+        <v>20</v>
+      </c>
+      <c r="M51">
+        <v>25</v>
+      </c>
+      <c r="P51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>0.1340983</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0.1063124</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0.13343949999999999</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>0.1124883</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>9.6517000000000006E-2</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>0.1052405</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>0.149758</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>9.3088039999999997E-2</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>0.32773849999999999</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>0.12225750000000001</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <v>0.1777349</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q53">
+        <v>0.11119039999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>5.0644910000000001E-2</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>0.1588936</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <v>6.3974260000000005E-2</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K54">
+        <v>8.0326400000000006E-2</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>7.3500339999999997E-2</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54">
+        <v>6.9382680000000002E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>0.1058014</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>8.7722949999999994E-2</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <v>0.1040697</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K55">
+        <v>8.9259820000000004E-2</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N55">
+        <v>7.7486849999999996E-2</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q55">
+        <v>8.6358279999999996E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>8.8788070000000007E-3</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>1.8540500000000001E-2</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56">
+        <v>2.4035910000000001E-2</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K56">
+        <v>1.864327E-2</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N56">
+        <v>3.3284010000000003E-2</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q56">
+        <v>3.8830759999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>9.7609250000000002E-3</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>1.9558269999999999E-2</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57">
+        <v>2.3217979999999999E-2</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57">
+        <v>1.8208329999999998E-2</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N57">
+        <v>8.2857230000000004E-2</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q57">
+        <v>3.54953E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>1.9179180000000001E-2</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58">
+        <v>2.481529E-2</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58">
+        <v>4.350938E-2</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K58">
+        <v>2.6567629999999998E-2</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N58">
+        <v>3.4418020000000001E-2</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q58">
+        <v>3.6115479999999998E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59">
+        <v>3.06542E-2</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>2.677763E-2</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59">
+        <v>3.2250929999999997E-2</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59">
+        <v>3.529997E-2</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59">
+        <v>3.3482190000000002E-2</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59">
+        <v>3.9616930000000002E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>2.393611E-2</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60">
+        <v>3.6061070000000001E-2</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60">
+        <v>2.9008969999999999E-2</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60">
+        <v>3.4182129999999998E-2</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N60">
+        <v>5.1431490000000003E-2</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q60">
+        <v>4.2770849999999999E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61">
+        <v>0.10513400000000001</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>0.1313164</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <v>8.1728869999999995E-2</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K61">
+        <v>7.5294780000000006E-2</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N61">
+        <v>9.3636410000000003E-2</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q61">
+        <v>8.5770390000000002E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <f>AVERAGE(B52:B61)</f>
+        <v>6.3784583199999995E-2</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ref="C64:Q64" si="3">AVERAGE(E52:E61)</f>
+        <v>7.0308614999999991E-2</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="3"/>
+        <v>8.629740000000001E-2</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="3"/>
+        <v>6.1252813000000003E-2</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="3"/>
+        <v>7.5434844000000001E-2</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="3"/>
+        <v>6.507715700000001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>143</v>
+      </c>
+      <c r="D73">
+        <v>154</v>
+      </c>
+      <c r="E73">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>195</v>
+      </c>
+      <c r="D74">
+        <v>100</v>
+      </c>
+      <c r="E74">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>15</v>
+      </c>
+      <c r="C75">
+        <v>119</v>
+      </c>
+      <c r="D75">
+        <v>138</v>
+      </c>
+      <c r="E75">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>20</v>
+      </c>
+      <c r="C76">
+        <v>162</v>
+      </c>
+      <c r="D76">
+        <v>94</v>
+      </c>
+      <c r="E76">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>25</v>
+      </c>
+      <c r="C77">
+        <v>144</v>
+      </c>
+      <c r="D77">
+        <v>89</v>
+      </c>
+      <c r="E77">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>30</v>
+      </c>
+      <c r="C78">
+        <v>186</v>
+      </c>
+      <c r="D78">
+        <v>73</v>
+      </c>
+      <c r="E78">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/result/greske-are.xlsx
+++ b/result/greske-are.xlsx
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72:E78"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52:Q61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1829,37 +1829,37 @@
         <v>1</v>
       </c>
       <c r="B52">
-        <v>0.1340983</v>
+        <v>0.26819660000000001</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E52">
-        <v>0.1063124</v>
+        <v>0.2126247</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>0.13343949999999999</v>
+        <v>0.26687889999999997</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K52">
-        <v>0.1124883</v>
+        <v>0.2249767</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N52">
-        <v>9.6517000000000006E-2</v>
+        <v>0.19303400000000001</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>0.1052405</v>
+        <v>0.210481</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,37 +1867,37 @@
         <v>2</v>
       </c>
       <c r="B53">
-        <v>0.149758</v>
+        <v>0.299516</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E53">
-        <v>9.3088039999999997E-2</v>
+        <v>0.18617610000000001</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H53">
-        <v>0.32773849999999999</v>
+        <v>0.21944949999999999</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K53">
-        <v>0.12225750000000001</v>
+        <v>0.24451500000000001</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N53">
-        <v>0.1777349</v>
+        <v>0.23765539999999999</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Q53">
-        <v>0.11119039999999999</v>
+        <v>0.22238079999999999</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -1905,37 +1905,37 @@
         <v>3</v>
       </c>
       <c r="B54">
-        <v>5.0644910000000001E-2</v>
+        <v>0.1012898</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E54">
-        <v>0.1588936</v>
+        <v>0.1312449</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H54">
-        <v>6.3974260000000005E-2</v>
+        <v>0.12794849999999999</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K54">
-        <v>8.0326400000000006E-2</v>
+        <v>0.16065280000000001</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N54">
-        <v>7.3500339999999997E-2</v>
+        <v>0.14700070000000001</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Q54">
-        <v>6.9382680000000002E-2</v>
+        <v>0.13876540000000001</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,37 +1943,37 @@
         <v>4</v>
       </c>
       <c r="B55">
-        <v>0.1058014</v>
+        <v>0.21160290000000001</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E55">
-        <v>8.7722949999999994E-2</v>
+        <v>0.17544589999999999</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H55">
-        <v>0.1040697</v>
+        <v>0.20813950000000001</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K55">
-        <v>8.9259820000000004E-2</v>
+        <v>0.1785196</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N55">
-        <v>7.7486849999999996E-2</v>
+        <v>0.15497369999999999</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q55">
-        <v>8.6358279999999996E-2</v>
+        <v>0.1727166</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,37 +1981,37 @@
         <v>5</v>
       </c>
       <c r="B56">
-        <v>8.8788070000000007E-3</v>
+        <v>1.775761E-2</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E56">
-        <v>1.8540500000000001E-2</v>
+        <v>3.7081000000000003E-2</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H56">
-        <v>2.4035910000000001E-2</v>
+        <v>4.8071830000000003E-2</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K56">
-        <v>1.864327E-2</v>
+        <v>3.7286529999999998E-2</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="N56">
-        <v>3.3284010000000003E-2</v>
+        <v>6.6568020000000006E-2</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Q56">
-        <v>3.8830759999999999E-2</v>
+        <v>7.7661510000000003E-2</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,37 +2019,37 @@
         <v>6</v>
       </c>
       <c r="B57">
-        <v>9.7609250000000002E-3</v>
+        <v>1.684567E-2</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E57">
-        <v>1.9558269999999999E-2</v>
+        <v>3.9116539999999998E-2</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H57">
-        <v>2.3217979999999999E-2</v>
+        <v>4.6435959999999998E-2</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K57">
-        <v>1.8208329999999998E-2</v>
+        <v>3.6416650000000002E-2</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N57">
-        <v>8.2857230000000004E-2</v>
+        <v>6.4253350000000001E-2</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Q57">
-        <v>3.54953E-2</v>
+        <v>6.5789710000000001E-2</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -2057,37 +2057,37 @@
         <v>7</v>
       </c>
       <c r="B58">
-        <v>1.9179180000000001E-2</v>
+        <v>3.8358360000000001E-2</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E58">
-        <v>2.481529E-2</v>
+        <v>4.9630590000000002E-2</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H58">
-        <v>4.350938E-2</v>
+        <v>4.9446190000000001E-2</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K58">
-        <v>2.6567629999999998E-2</v>
+        <v>5.3135269999999998E-2</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="N58">
-        <v>3.4418020000000001E-2</v>
+        <v>6.8836040000000001E-2</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="Q58">
-        <v>3.6115479999999998E-2</v>
+        <v>7.2230959999999997E-2</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,37 +2095,37 @@
         <v>8</v>
       </c>
       <c r="B59">
-        <v>3.06542E-2</v>
+        <v>6.1308399999999999E-2</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E59">
-        <v>2.677763E-2</v>
+        <v>5.3555249999999999E-2</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H59">
-        <v>3.2250929999999997E-2</v>
+        <v>6.4501859999999994E-2</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K59">
-        <v>3.529997E-2</v>
+        <v>7.0599930000000005E-2</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N59">
-        <v>3.3482190000000002E-2</v>
+        <v>6.6964380000000004E-2</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q59">
-        <v>3.9616930000000002E-2</v>
+        <v>7.9233869999999998E-2</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,37 +2133,37 @@
         <v>9</v>
       </c>
       <c r="B60">
-        <v>2.393611E-2</v>
+        <v>4.787222E-2</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E60">
-        <v>3.6061070000000001E-2</v>
+        <v>7.2122140000000001E-2</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H60">
-        <v>2.9008969999999999E-2</v>
+        <v>5.8017939999999997E-2</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K60">
-        <v>3.4182129999999998E-2</v>
+        <v>6.8364250000000001E-2</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="N60">
-        <v>5.1431490000000003E-2</v>
+        <v>0.102863</v>
       </c>
       <c r="P60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Q60">
-        <v>4.2770849999999999E-2</v>
+        <v>8.5541690000000004E-2</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,63 +2171,63 @@
         <v>10</v>
       </c>
       <c r="B61">
-        <v>0.10513400000000001</v>
+        <v>0.21026790000000001</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E61">
-        <v>0.1313164</v>
+        <v>0.15107300000000001</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H61">
-        <v>8.1728869999999995E-2</v>
+        <v>0.16345770000000001</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K61">
-        <v>7.5294780000000006E-2</v>
+        <v>0.15058959999999999</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="N61">
-        <v>9.3636410000000003E-2</v>
+        <v>0.18727279999999999</v>
       </c>
       <c r="P61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Q61">
-        <v>8.5770390000000002E-2</v>
+        <v>0.1578976</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B64">
         <f>AVERAGE(B52:B61)</f>
-        <v>6.3784583199999995E-2</v>
+        <v>0.12730154600000002</v>
       </c>
       <c r="E64">
-        <f t="shared" ref="C64:Q64" si="3">AVERAGE(E52:E61)</f>
-        <v>7.0308614999999991E-2</v>
+        <f t="shared" ref="E64:Q64" si="3">AVERAGE(E52:E61)</f>
+        <v>0.11080701200000001</v>
       </c>
       <c r="H64">
         <f t="shared" si="3"/>
-        <v>8.629740000000001E-2</v>
+        <v>0.12523478800000001</v>
       </c>
       <c r="K64">
-        <f t="shared" si="3"/>
-        <v>6.1252813000000003E-2</v>
+        <f>AVERAGE(K52:K61)</f>
+        <v>0.12250563299999999</v>
       </c>
       <c r="N64">
         <f t="shared" si="3"/>
-        <v>7.5434844000000001E-2</v>
+        <v>0.12894213899999998</v>
       </c>
       <c r="Q64">
         <f t="shared" si="3"/>
-        <v>6.507715700000001E-2</v>
+        <v>0.12826991400000001</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
